--- a/set/payGo/capacity/1:3.5/amount/2C0(hub).xlsx
+++ b/set/payGo/capacity/1:3.5/amount/2C0(hub).xlsx
@@ -398,16 +398,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.007</v>
+        <v>0.011</v>
       </c>
       <c r="E2" t="n">
         <v>10.15</v>
@@ -432,16 +432,16 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
       <c r="E3" t="n">
         <v>10.15</v>
@@ -463,7 +463,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -499,11 +499,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.089</v>
+        <v>0.007</v>
       </c>
       <c r="E5" t="n">
         <v>10.15</v>
@@ -530,11 +530,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.089</v>
+        <v>0.005</v>
       </c>
       <c r="E6" t="n">
         <v>10.15</v>
@@ -556,7 +556,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.091</v>
+        <v>0.159</v>
       </c>
       <c r="E7" t="n">
         <v>10.15</v>
@@ -587,16 +587,16 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.048</v>
+        <v>0.006</v>
       </c>
       <c r="E8" t="n">
         <v>10.15</v>
@@ -623,11 +623,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.026</v>
+        <v>0.006</v>
       </c>
       <c r="E9" t="n">
         <v>10.15</v>
@@ -649,12 +649,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -680,12 +680,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -716,11 +716,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.108</v>
+        <v>0.006</v>
       </c>
       <c r="E12" t="n">
         <v>10.15</v>
@@ -742,16 +742,16 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E13" t="n">
         <v>10.15</v>
@@ -778,11 +778,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E14" t="n">
         <v>10.15</v>
@@ -804,16 +804,16 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E15" t="n">
         <v>10.15</v>
@@ -835,16 +835,16 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E16" t="n">
         <v>10.15</v>
@@ -866,16 +866,16 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E17" t="n">
         <v>10.15</v>
@@ -897,7 +897,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E18" t="n">
         <v>10.15</v>
@@ -933,11 +933,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E19" t="n">
         <v>10.15</v>
@@ -959,12 +959,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E21" t="n">
         <v>10.15</v>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.006</v>
+        <v>0.011</v>
       </c>
       <c r="E22" t="n">
         <v>10.15</v>
@@ -1057,11 +1057,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.007</v>
+        <v>0.017</v>
       </c>
       <c r="E23" t="n">
         <v>10.15</v>
@@ -1083,12 +1083,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1114,7 +1114,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1150,11 +1150,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E26" t="n">
         <v>10.15</v>
@@ -1176,7 +1176,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1207,16 +1207,16 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E28" t="n">
         <v>10.15</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1269,7 +1269,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1300,16 +1300,16 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E31" t="n">
         <v>10.15</v>
@@ -1331,16 +1331,16 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E32" t="n">
         <v>10.15</v>
@@ -1362,12 +1362,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1393,16 +1393,16 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E34" t="n">
         <v>10.15</v>
@@ -1424,12 +1424,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1460,11 +1460,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E36" t="n">
         <v>10.15</v>
@@ -1486,16 +1486,16 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E37" t="n">
         <v>10.15</v>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1553,11 +1553,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E39" t="n">
         <v>10.15</v>
@@ -1579,16 +1579,16 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E40" t="n">
         <v>10.15</v>
@@ -1610,12 +1610,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1703,7 +1703,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1734,7 +1734,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1765,7 +1765,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1801,11 +1801,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E47" t="n">
         <v>10.15</v>
@@ -1827,12 +1827,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1863,11 +1863,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E49" t="n">
         <v>10.15</v>
@@ -1889,7 +1889,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1920,16 +1920,16 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E51" t="n">
         <v>10.15</v>
@@ -1951,12 +1951,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1982,12 +1982,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -2013,12 +2013,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2044,16 +2044,16 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E55" t="n">
         <v>10.15</v>
@@ -2080,11 +2080,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E56" t="n">
         <v>10.15</v>
@@ -2137,16 +2137,16 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E58" t="n">
         <v>10.15</v>
@@ -2168,16 +2168,16 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E59" t="n">
         <v>10.15</v>
@@ -2199,16 +2199,16 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E60" t="n">
         <v>10.15</v>
@@ -2230,7 +2230,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E61" t="n">
         <v>10.15</v>
@@ -2261,7 +2261,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E62" t="n">
         <v>10.15</v>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.007</v>
+        <v>2.035</v>
       </c>
       <c r="E63" t="n">
         <v>10.15</v>
@@ -2323,7 +2323,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2332,13 +2332,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.006</v>
+        <v>4.044</v>
       </c>
       <c r="E64" t="n">
-        <v>10.15</v>
+        <v>3.3</v>
       </c>
       <c r="G64" t="n">
-        <v>10.15</v>
+        <v>3.3</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -2385,12 +2385,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -2447,7 +2447,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2456,13 +2456,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.006</v>
+        <v>5.009</v>
       </c>
       <c r="E68" t="n">
-        <v>10.15</v>
+        <v>2.15</v>
       </c>
       <c r="G68" t="n">
-        <v>10.15</v>
+        <v>2.15</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2487,13 +2487,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.006</v>
+        <v>4.033</v>
       </c>
       <c r="E69" t="n">
-        <v>10.15</v>
+        <v>3.3</v>
       </c>
       <c r="G69" t="n">
-        <v>10.15</v>
+        <v>3.3</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2514,11 +2514,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E70" t="n">
         <v>10.15</v>
@@ -2540,7 +2540,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2549,13 +2549,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.006</v>
+        <v>4.028</v>
       </c>
       <c r="E71" t="n">
-        <v>10.15</v>
+        <v>3.3</v>
       </c>
       <c r="G71" t="n">
-        <v>10.15</v>
+        <v>3.3</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2571,16 +2571,16 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E72" t="n">
         <v>10.15</v>
@@ -2602,7 +2602,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2633,7 +2633,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E74" t="n">
         <v>10.15</v>
@@ -2664,7 +2664,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2673,7 +2673,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E75" t="n">
         <v>10.15</v>
@@ -2695,16 +2695,16 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E76" t="n">
         <v>10.15</v>
@@ -2726,12 +2726,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -2766,7 +2766,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E78" t="n">
         <v>10.15</v>
@@ -2788,16 +2788,16 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E79" t="n">
         <v>10.15</v>
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -2850,16 +2850,16 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E81" t="n">
         <v>10.15</v>
@@ -2881,16 +2881,16 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E82" t="n">
         <v>10.15</v>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2948,11 +2948,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E84" t="n">
         <v>10.15</v>
@@ -2974,16 +2974,16 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E85" t="n">
         <v>10.15</v>
@@ -3005,16 +3005,16 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E86" t="n">
         <v>10.15</v>
@@ -3036,7 +3036,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E87" t="n">
         <v>10.15</v>
@@ -3067,7 +3067,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3134,7 +3134,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -3160,16 +3160,16 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E91" t="n">
         <v>10.15</v>
@@ -3191,16 +3191,16 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E92" t="n">
         <v>10.15</v>
@@ -3222,7 +3222,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3231,7 +3231,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E93" t="n">
         <v>10.15</v>
@@ -3253,12 +3253,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -3284,16 +3284,16 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E95" t="n">
         <v>10.15</v>
@@ -3315,16 +3315,16 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E96" t="n">
         <v>10.15</v>
@@ -3346,7 +3346,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3355,7 +3355,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E97" t="n">
         <v>10.15</v>
@@ -3377,7 +3377,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3386,7 +3386,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E98" t="n">
         <v>10.15</v>
@@ -3408,16 +3408,16 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E99" t="n">
         <v>10.15</v>
@@ -3439,7 +3439,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3470,7 +3470,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3479,7 +3479,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E101" t="n">
         <v>10.15</v>
@@ -3501,16 +3501,16 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E102" t="n">
         <v>10.15</v>
@@ -3532,16 +3532,16 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E103" t="n">
         <v>10.15</v>
@@ -3563,16 +3563,16 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E104" t="n">
         <v>10.15</v>
@@ -3599,11 +3599,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.006</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E105" t="n">
         <v>10.15</v>
@@ -3625,12 +3625,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -3656,7 +3656,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3665,7 +3665,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E107" t="n">
         <v>10.15</v>
@@ -3692,11 +3692,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E108" t="n">
         <v>10.15</v>
@@ -3718,16 +3718,16 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E109" t="n">
         <v>10.15</v>
@@ -3749,12 +3749,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -3785,11 +3785,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E111" t="n">
         <v>10.15</v>
@@ -3811,16 +3811,16 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E112" t="n">
         <v>10.15</v>
@@ -3842,12 +3842,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -3878,11 +3878,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E114" t="n">
         <v>10.15</v>
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E115" t="n">
         <v>10.15</v>
@@ -3935,12 +3935,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -3966,7 +3966,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -4033,11 +4033,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E119" t="n">
         <v>10.15</v>
@@ -4059,16 +4059,16 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E120" t="n">
         <v>10.15</v>
@@ -4090,16 +4090,16 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E121" t="n">
         <v>10.15</v>
@@ -4130,7 +4130,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E122" t="n">
         <v>10.15</v>
@@ -4152,16 +4152,16 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E123" t="n">
         <v>10.15</v>
@@ -4183,7 +4183,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E124" t="n">
         <v>10.15</v>
@@ -4214,16 +4214,16 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E125" t="n">
         <v>10.15</v>
@@ -4245,7 +4245,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4254,7 +4254,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.017</v>
+        <v>0.007</v>
       </c>
       <c r="E126" t="n">
         <v>10.15</v>
@@ -4276,7 +4276,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4285,7 +4285,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.012</v>
+        <v>0.007</v>
       </c>
       <c r="E127" t="n">
         <v>10.15</v>
@@ -4312,11 +4312,11 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E128" t="n">
         <v>10.15</v>
@@ -4338,16 +4338,16 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E129" t="n">
         <v>10.15</v>
@@ -4369,7 +4369,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4400,16 +4400,16 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E131" t="n">
         <v>10.15</v>
@@ -4440,7 +4440,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E132" t="n">
         <v>10.15</v>
@@ -4462,12 +4462,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -4493,12 +4493,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -4524,16 +4524,16 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E135" t="n">
         <v>10.15</v>
@@ -4555,7 +4555,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4586,16 +4586,16 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E137" t="n">
         <v>10.15</v>
@@ -4617,7 +4617,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E138" t="n">
         <v>10.15</v>
@@ -4648,16 +4648,16 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E139" t="n">
         <v>10.15</v>
@@ -4679,7 +4679,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4710,12 +4710,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -4741,12 +4741,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -4772,16 +4772,16 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E143" t="n">
         <v>10.15</v>
@@ -4803,16 +4803,16 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E144" t="n">
         <v>10.15</v>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E145" t="n">
         <v>10.15</v>
@@ -4870,11 +4870,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E146" t="n">
         <v>10.15</v>
@@ -4896,16 +4896,16 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E147" t="n">
         <v>10.15</v>
@@ -4927,16 +4927,16 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E148" t="n">
         <v>10.15</v>
@@ -4958,16 +4958,16 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E149" t="n">
         <v>10.15</v>
@@ -4989,7 +4989,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5020,16 +5020,16 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E151" t="n">
         <v>10.15</v>
@@ -5051,12 +5051,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -5082,16 +5082,16 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E153" t="n">
         <v>10.15</v>
@@ -5113,16 +5113,16 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E154" t="n">
         <v>10.15</v>
@@ -5144,7 +5144,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5153,7 +5153,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E155" t="n">
         <v>10.15</v>
@@ -5175,12 +5175,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -5211,11 +5211,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E157" t="n">
         <v>10.15</v>
@@ -5242,11 +5242,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E158" t="n">
         <v>10.15</v>
@@ -5268,7 +5268,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5277,7 +5277,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E159" t="n">
         <v>10.15</v>
@@ -5299,12 +5299,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -5330,16 +5330,16 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E161" t="n">
         <v>10.15</v>
@@ -5361,16 +5361,16 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E162" t="n">
         <v>10.15</v>
@@ -5401,7 +5401,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E163" t="n">
         <v>10.15</v>
@@ -5428,7 +5428,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -5454,16 +5454,16 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="E165" t="n">
         <v>10.15</v>
@@ -5490,11 +5490,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E166" t="n">
         <v>10.15</v>
@@ -5516,16 +5516,16 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E167" t="n">
         <v>10.15</v>
@@ -5547,16 +5547,16 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E168" t="n">
         <v>10.15</v>
@@ -5578,16 +5578,16 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E169" t="n">
         <v>10.15</v>
@@ -5609,16 +5609,16 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E170" t="n">
         <v>10.15</v>
@@ -5645,7 +5645,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -5671,16 +5671,16 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E172" t="n">
         <v>10.15</v>
@@ -5702,7 +5702,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5733,12 +5733,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -5764,12 +5764,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -5826,7 +5826,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5857,7 +5857,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5888,7 +5888,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5928,7 +5928,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E180" t="n">
         <v>10.15</v>
@@ -5950,16 +5950,16 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E181" t="n">
         <v>10.15</v>
@@ -5981,16 +5981,16 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E182" t="n">
         <v>10.15</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.017</v>
+        <v>0.007</v>
       </c>
       <c r="E183" t="n">
         <v>10.15</v>
@@ -6052,7 +6052,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.04</v>
+        <v>0.006</v>
       </c>
       <c r="E184" t="n">
         <v>10.15</v>
@@ -6079,11 +6079,11 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E185" t="n">
         <v>10.15</v>
@@ -6110,11 +6110,11 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E186" t="n">
         <v>10.15</v>
@@ -6141,11 +6141,11 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E187" t="n">
         <v>10.15</v>
@@ -6167,16 +6167,16 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E188" t="n">
         <v>10.15</v>
@@ -6198,16 +6198,16 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E189" t="n">
         <v>10.15</v>
@@ -6229,16 +6229,16 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E190" t="n">
         <v>10.15</v>
@@ -6260,12 +6260,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -6291,16 +6291,16 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E192" t="n">
         <v>10.15</v>
@@ -6327,7 +6327,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -6358,11 +6358,11 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E194" t="n">
         <v>10.15</v>
@@ -6384,7 +6384,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6415,16 +6415,16 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E196" t="n">
         <v>10.15</v>
@@ -6446,16 +6446,16 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E197" t="n">
         <v>10.15</v>
@@ -6482,11 +6482,11 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E198" t="n">
         <v>10.15</v>
@@ -6517,7 +6517,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E199" t="n">
         <v>10.15</v>
@@ -6539,12 +6539,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -6570,16 +6570,16 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E201" t="n">
         <v>10.15</v>
@@ -6606,7 +6606,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C202" t="n">
